--- a/entropy_csv/test_12_30_2_entropy.xlsx
+++ b/entropy_csv/test_12_30_2_entropy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\entropy_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CFFD2E-F4EA-4B30-BB98-5B32CA7FC259}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009F9C0-D39D-4B35-BB55-449815279C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G181" workbookViewId="0">
-      <selection activeCell="S631" sqref="S631"/>
+    <sheetView tabSelected="1" topLeftCell="K646" workbookViewId="0">
+      <selection activeCell="U216" sqref="U216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1181,7 +1181,7 @@
         <v>20</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>5.0155233908100003</v>
@@ -2780,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>5.0155233908100003</v>
@@ -11529,7 +11529,7 @@
         <v>4.7683416859036001</v>
       </c>
       <c r="S216" t="str">
-        <f t="shared" ref="S195:S216" si="8">IF(AND(K216="normal pipe image",R216&gt;$O$640),R216,"pass")</f>
+        <f t="shared" ref="S216" si="8">IF(AND(K216="normal pipe image",R216&gt;$O$640),R216,"pass")</f>
         <v>pass</v>
       </c>
       <c r="U216" t="str">
@@ -20483,7 +20483,7 @@
         <v>55</v>
       </c>
       <c r="O415">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q415">
         <v>3.5995696062980298</v>
@@ -30035,15 +30035,16 @@
         <v>392</v>
       </c>
       <c r="I628">
-        <v>17</v>
+        <f>COUNTIFS(B2:B626,B622,F2:F626,F616)</f>
+        <v>18</v>
       </c>
       <c r="J628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F610)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F616)</f>
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="630" spans="1:19">
@@ -30060,11 +30061,11 @@
       </c>
       <c r="J630">
         <f>AVERAGEIFS($I$2:$I$626,$B$2:$B$626,"normal pipe image",$F$2:$F$626,1)</f>
-        <v>19.846148021207988</v>
+        <v>19.482373638460288</v>
       </c>
       <c r="K630">
         <f>AVERAGEIFS($I$2:$I$626,$B$2:$B$626,"normal pipe image",$F$2:$F$626,2)</f>
-        <v>3.7007520929464039</v>
+        <v>3.6368139245102675</v>
       </c>
     </row>
     <row r="632" spans="1:19">
@@ -30087,23 +30088,23 @@
     <row r="633" spans="1:19">
       <c r="M633">
         <f>(H628+K628)/(H628+I628+J628+K628)</f>
-        <v>0.96153846153846156</v>
+        <v>0.95840000000000003</v>
       </c>
       <c r="N633">
         <f>H628/(H628+I628)</f>
-        <v>0.95843520782396086</v>
+        <v>0.95609756097560972</v>
       </c>
       <c r="O633">
         <f>H628/(H628+J628)</f>
-        <v>0.98245614035087714</v>
+        <v>0.98</v>
       </c>
       <c r="P633">
         <f>K628/(I628+K628)</f>
-        <v>0.9244444444444444</v>
+        <v>0.92</v>
       </c>
       <c r="Q633">
         <f>(2*O633*N633)/(O633+N633)</f>
-        <v>0.97029702970297027</v>
+        <v>0.96790123456790123</v>
       </c>
     </row>
     <row r="636" spans="1:19">
@@ -30125,7 +30126,7 @@
       </c>
       <c r="N637">
         <f>AVERAGE(J630,K630)</f>
-        <v>11.773450057077195</v>
+        <v>11.559593781485278</v>
       </c>
       <c r="O637">
         <f>AVERAGE(R2:R216)</f>

--- a/entropy_csv/test_12_30_2_entropy.xlsx
+++ b/entropy_csv/test_12_30_2_entropy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\entropy_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1009F9C0-D39D-4B35-BB55-449815279C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451F41A-11E8-4A8E-A844-343DA068F548}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K646" workbookViewId="0">
-      <selection activeCell="U216" sqref="U216"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7404,7 +7404,7 @@
         <v>260</v>
       </c>
       <c r="O132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q132">
         <v>5.3250647366782999</v>
@@ -9707,7 +9707,7 @@
         <v>367</v>
       </c>
       <c r="O179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q179">
         <v>5.4701270490990499</v>
@@ -21545,7 +21545,7 @@
         <v>260</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H439">
         <v>5.3250647366782999</v>
@@ -26360,7 +26360,7 @@
         <v>367</v>
       </c>
       <c r="F546">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H546">
         <v>5.4701270490990499</v>
@@ -30040,11 +30040,11 @@
       </c>
       <c r="J628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F610)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F616)</f>
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="630" spans="1:19">
@@ -30061,11 +30061,11 @@
       </c>
       <c r="J630">
         <f>AVERAGEIFS($I$2:$I$626,$B$2:$B$626,"normal pipe image",$F$2:$F$626,1)</f>
-        <v>19.482373638460288</v>
+        <v>19.05760552460935</v>
       </c>
       <c r="K630">
         <f>AVERAGEIFS($I$2:$I$626,$B$2:$B$626,"normal pipe image",$F$2:$F$626,2)</f>
-        <v>3.6368139245102675</v>
+        <v>3.8006403748021609</v>
       </c>
     </row>
     <row r="632" spans="1:19">
@@ -30088,7 +30088,7 @@
     <row r="633" spans="1:19">
       <c r="M633">
         <f>(H628+K628)/(H628+I628+J628+K628)</f>
-        <v>0.95840000000000003</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="N633">
         <f>H628/(H628+I628)</f>
@@ -30096,15 +30096,15 @@
       </c>
       <c r="O633">
         <f>H628/(H628+J628)</f>
-        <v>0.98</v>
+        <v>0.98492462311557794</v>
       </c>
       <c r="P633">
         <f>K628/(I628+K628)</f>
-        <v>0.92</v>
+        <v>0.92070484581497802</v>
       </c>
       <c r="Q633">
         <f>(2*O633*N633)/(O633+N633)</f>
-        <v>0.96790123456790123</v>
+        <v>0.97029702970297027</v>
       </c>
     </row>
     <row r="636" spans="1:19">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="N637">
         <f>AVERAGE(J630,K630)</f>
-        <v>11.559593781485278</v>
+        <v>11.429122949705755</v>
       </c>
       <c r="O637">
         <f>AVERAGE(R2:R216)</f>
